--- a/chinalife/src/main/webapp/template/InsuranceTemplate.xlsx
+++ b/chinalife/src/main/webapp/template/InsuranceTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanxirui/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanxirui/Documents/workspace/github/for_java/chinalife/src/main/webapp/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="1560" yWindow="3860" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>保单号</t>
   </si>
@@ -159,6 +159,58 @@
   </si>
   <si>
     <t>缴费账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原专管员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新分配人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,18 +248,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -243,19 +289,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,35 +605,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.83203125" style="4"/>
+    <col min="11" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" style="4"/>
+    <col min="29" max="29" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,49 +667,49 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
@@ -687,41 +736,93 @@
       <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/chinalife/src/main/webapp/template/InsuranceTemplate.xlsx
+++ b/chinalife/src/main/webapp/template/InsuranceTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3860" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,23 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>保单号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>投保单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务原代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>险种名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投保人性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投保人手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保人通讯地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投保人职业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缴费期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保鲜期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缴费银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,18 +127,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机构号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>险种代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渠道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,22 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原专管员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新分配人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +156,66 @@
   </si>
   <si>
     <t>初始来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售员工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费期间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险期间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点专管员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点专管员工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新分配人员工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,178 +610,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="4"/>
-    <col min="11" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.83203125" style="4"/>
-    <col min="29" max="29" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.59765625" style="4" customWidth="1"/>
+    <col min="44" max="44" width="12.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:47" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AN1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AQ1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AS1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AT1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AU1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -823,6 +838,7 @@
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -837,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -851,7 +867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
